--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.8393629810783</v>
+        <v>14.9141735</v>
       </c>
       <c r="H2">
-        <v>14.8393629810783</v>
+        <v>29.828347</v>
       </c>
       <c r="I2">
-        <v>0.4466757390175408</v>
+        <v>0.4386258076640954</v>
       </c>
       <c r="J2">
-        <v>0.4466757390175408</v>
+        <v>0.3501214835108996</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N2">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O2">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P2">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q2">
-        <v>464.0592472972857</v>
+        <v>467.2144116773788</v>
       </c>
       <c r="R2">
-        <v>464.0592472972857</v>
+        <v>1868.857646709515</v>
       </c>
       <c r="S2">
-        <v>0.1866065797692405</v>
+        <v>0.1622263722123936</v>
       </c>
       <c r="T2">
-        <v>0.1866065797692405</v>
+        <v>0.109544211004545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.8393629810783</v>
+        <v>14.9141735</v>
       </c>
       <c r="H3">
-        <v>14.8393629810783</v>
+        <v>29.828347</v>
       </c>
       <c r="I3">
-        <v>0.4466757390175408</v>
+        <v>0.4386258076640954</v>
       </c>
       <c r="J3">
-        <v>0.4466757390175408</v>
+        <v>0.3501214835108996</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N3">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O3">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P3">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q3">
-        <v>20.1111305450485</v>
+        <v>21.848906237336</v>
       </c>
       <c r="R3">
-        <v>20.1111305450485</v>
+        <v>131.093437424016</v>
       </c>
       <c r="S3">
-        <v>0.008087047738324754</v>
+        <v>0.007586385837214474</v>
       </c>
       <c r="T3">
-        <v>0.008087047738324754</v>
+        <v>0.00768412040145059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.8393629810783</v>
+        <v>14.9141735</v>
       </c>
       <c r="H4">
-        <v>14.8393629810783</v>
+        <v>29.828347</v>
       </c>
       <c r="I4">
-        <v>0.4466757390175408</v>
+        <v>0.4386258076640954</v>
       </c>
       <c r="J4">
-        <v>0.4466757390175408</v>
+        <v>0.3501214835108996</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N4">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O4">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P4">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q4">
-        <v>10.79538527144247</v>
+        <v>17.2345653556505</v>
       </c>
       <c r="R4">
-        <v>10.79538527144247</v>
+        <v>103.407392133903</v>
       </c>
       <c r="S4">
-        <v>0.004341018812851263</v>
+        <v>0.005984192577165642</v>
       </c>
       <c r="T4">
-        <v>0.004341018812851263</v>
+        <v>0.006061286263986219</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.8393629810783</v>
+        <v>14.9141735</v>
       </c>
       <c r="H5">
-        <v>14.8393629810783</v>
+        <v>29.828347</v>
       </c>
       <c r="I5">
-        <v>0.4466757390175408</v>
+        <v>0.4386258076640954</v>
       </c>
       <c r="J5">
-        <v>0.4466757390175408</v>
+        <v>0.3501214835108996</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N5">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O5">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P5">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q5">
-        <v>7.221155949816946</v>
+        <v>8.271152053541666</v>
       </c>
       <c r="R5">
-        <v>7.221155949816946</v>
+        <v>49.62691232125</v>
       </c>
       <c r="S5">
-        <v>0.002903756840583754</v>
+        <v>0.00287191267676412</v>
       </c>
       <c r="T5">
-        <v>0.002903756840583754</v>
+        <v>0.002908911208082002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.8393629810783</v>
+        <v>14.9141735</v>
       </c>
       <c r="H6">
-        <v>14.8393629810783</v>
+        <v>29.828347</v>
       </c>
       <c r="I6">
-        <v>0.4466757390175408</v>
+        <v>0.4386258076640954</v>
       </c>
       <c r="J6">
-        <v>0.4466757390175408</v>
+        <v>0.3501214835108996</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N6">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O6">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P6">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q6">
-        <v>387.671942150099</v>
+        <v>412.7370646222427</v>
       </c>
       <c r="R6">
-        <v>387.671942150099</v>
+        <v>2476.422387733456</v>
       </c>
       <c r="S6">
-        <v>0.1558898688442362</v>
+        <v>0.1433107262913238</v>
       </c>
       <c r="T6">
-        <v>0.1558898688442362</v>
+        <v>0.1451569824250069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.8393629810783</v>
+        <v>14.9141735</v>
       </c>
       <c r="H7">
-        <v>14.8393629810783</v>
+        <v>29.828347</v>
       </c>
       <c r="I7">
-        <v>0.4466757390175408</v>
+        <v>0.4386258076640954</v>
       </c>
       <c r="J7">
-        <v>0.4466757390175408</v>
+        <v>0.3501214835108996</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.8893682450944</v>
+        <v>22.525075</v>
       </c>
       <c r="N7">
-        <v>14.8893682450944</v>
+        <v>45.05015</v>
       </c>
       <c r="O7">
-        <v>0.1989081995089401</v>
+        <v>0.2659356016702117</v>
       </c>
       <c r="P7">
-        <v>0.1989081995089401</v>
+        <v>0.2249675496001858</v>
       </c>
       <c r="Q7">
-        <v>220.9487399478966</v>
+        <v>335.9428766505125</v>
       </c>
       <c r="R7">
-        <v>220.9487399478966</v>
+        <v>1343.77150660205</v>
       </c>
       <c r="S7">
-        <v>0.08884746701230428</v>
+        <v>0.1166462180692338</v>
       </c>
       <c r="T7">
-        <v>0.08884746701230428</v>
+        <v>0.07876597220782895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.6965504839323</v>
+        <v>2.806846</v>
       </c>
       <c r="H8">
-        <v>2.6965504839323</v>
+        <v>8.420538000000001</v>
       </c>
       <c r="I8">
-        <v>0.08116815268582664</v>
+        <v>0.08254933427847916</v>
       </c>
       <c r="J8">
-        <v>0.08116815268582664</v>
+        <v>0.09883924364028297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N8">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O8">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P8">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q8">
-        <v>84.32701521408734</v>
+        <v>87.92970676913501</v>
       </c>
       <c r="R8">
-        <v>84.32701521408734</v>
+        <v>527.5782406148101</v>
       </c>
       <c r="S8">
-        <v>0.03390941131525122</v>
+        <v>0.03053098744887661</v>
       </c>
       <c r="T8">
-        <v>0.03390941131525122</v>
+        <v>0.03092431476151827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.6965504839323</v>
+        <v>2.806846</v>
       </c>
       <c r="H9">
-        <v>2.6965504839323</v>
+        <v>8.420538000000001</v>
       </c>
       <c r="I9">
-        <v>0.08116815268582664</v>
+        <v>0.08254933427847916</v>
       </c>
       <c r="J9">
-        <v>0.08116815268582664</v>
+        <v>0.09883924364028297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N9">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O9">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P9">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q9">
-        <v>3.654515282955598</v>
+        <v>4.111962025696</v>
       </c>
       <c r="R9">
-        <v>3.654515282955598</v>
+        <v>37.007658231264</v>
       </c>
       <c r="S9">
-        <v>0.001469546403047728</v>
+        <v>0.001427757075619517</v>
       </c>
       <c r="T9">
-        <v>0.001469546403047728</v>
+        <v>0.002169226066633527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.6965504839323</v>
+        <v>2.806846</v>
       </c>
       <c r="H10">
-        <v>2.6965504839323</v>
+        <v>8.420538000000001</v>
       </c>
       <c r="I10">
-        <v>0.08116815268582664</v>
+        <v>0.08254933427847916</v>
       </c>
       <c r="J10">
-        <v>0.08116815268582664</v>
+        <v>0.09883924364028297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N10">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O10">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P10">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q10">
-        <v>1.961694812308481</v>
+        <v>3.243543521218</v>
       </c>
       <c r="R10">
-        <v>1.961694812308481</v>
+        <v>29.191891690962</v>
       </c>
       <c r="S10">
-        <v>0.0007888328087586608</v>
+        <v>0.001126224460138342</v>
       </c>
       <c r="T10">
-        <v>0.0007888328087586608</v>
+        <v>0.001711100226733114</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.6965504839323</v>
+        <v>2.806846</v>
       </c>
       <c r="H11">
-        <v>2.6965504839323</v>
+        <v>8.420538000000001</v>
       </c>
       <c r="I11">
-        <v>0.08116815268582664</v>
+        <v>0.08254933427847916</v>
       </c>
       <c r="J11">
-        <v>0.08116815268582664</v>
+        <v>0.09883924364028297</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N11">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O11">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P11">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q11">
-        <v>1.312199964099439</v>
+        <v>1.556630010833333</v>
       </c>
       <c r="R11">
-        <v>1.312199964099439</v>
+        <v>14.0096700975</v>
       </c>
       <c r="S11">
-        <v>0.0005276592346775302</v>
+        <v>0.0005404936860312549</v>
       </c>
       <c r="T11">
-        <v>0.0005276592346775302</v>
+        <v>0.0008211852090322136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.6965504839323</v>
+        <v>2.806846</v>
       </c>
       <c r="H12">
-        <v>2.6965504839323</v>
+        <v>8.420538000000001</v>
       </c>
       <c r="I12">
-        <v>0.08116815268582664</v>
+        <v>0.08254933427847916</v>
       </c>
       <c r="J12">
-        <v>0.08116815268582664</v>
+        <v>0.09883924364028297</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N12">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O12">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P12">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q12">
-        <v>70.44621555148871</v>
+        <v>77.67707535966933</v>
       </c>
       <c r="R12">
-        <v>70.44621555148871</v>
+        <v>699.0936782370241</v>
       </c>
       <c r="S12">
-        <v>0.02832769181588696</v>
+        <v>0.02697106472899065</v>
       </c>
       <c r="T12">
-        <v>0.02832769181588696</v>
+        <v>0.04097779493027564</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.6965504839323</v>
+        <v>2.806846</v>
       </c>
       <c r="H13">
-        <v>2.6965504839323</v>
+        <v>8.420538000000001</v>
       </c>
       <c r="I13">
-        <v>0.08116815268582664</v>
+        <v>0.08254933427847916</v>
       </c>
       <c r="J13">
-        <v>0.08116815268582664</v>
+        <v>0.09883924364028297</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.8893682450944</v>
+        <v>22.525075</v>
       </c>
       <c r="N13">
-        <v>14.8893682450944</v>
+        <v>45.05015</v>
       </c>
       <c r="O13">
-        <v>0.1989081995089401</v>
+        <v>0.2659356016702117</v>
       </c>
       <c r="P13">
-        <v>0.1989081995089401</v>
+        <v>0.2249675496001858</v>
       </c>
       <c r="Q13">
-        <v>40.14993314675552</v>
+        <v>63.22441666345001</v>
       </c>
       <c r="R13">
-        <v>40.14993314675552</v>
+        <v>379.3464999807001</v>
       </c>
       <c r="S13">
-        <v>0.01614501110820452</v>
+        <v>0.02195280687882278</v>
       </c>
       <c r="T13">
-        <v>0.01614501110820452</v>
+        <v>0.02223562244609021</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.76495925347316</v>
+        <v>1.909311666666667</v>
       </c>
       <c r="H14">
-        <v>1.76495925347316</v>
+        <v>5.727935</v>
       </c>
       <c r="I14">
-        <v>0.05312657153047713</v>
+        <v>0.05615285163969339</v>
       </c>
       <c r="J14">
-        <v>0.05312657153047713</v>
+        <v>0.06723379943427656</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N14">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O14">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P14">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q14">
-        <v>55.194125497267</v>
+        <v>59.81276314442917</v>
       </c>
       <c r="R14">
-        <v>55.194125497267</v>
+        <v>358.876578866575</v>
       </c>
       <c r="S14">
-        <v>0.02219455175688181</v>
+        <v>0.0207682111989734</v>
       </c>
       <c r="T14">
-        <v>0.02219455175688181</v>
+        <v>0.02103576575196468</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.76495925347316</v>
+        <v>1.909311666666667</v>
       </c>
       <c r="H15">
-        <v>1.76495925347316</v>
+        <v>5.727935</v>
       </c>
       <c r="I15">
-        <v>0.05312657153047713</v>
+        <v>0.05615285163969339</v>
       </c>
       <c r="J15">
-        <v>0.05312657153047713</v>
+        <v>0.06723379943427656</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N15">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O15">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P15">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q15">
-        <v>2.391971002970291</v>
+        <v>2.797095768186667</v>
       </c>
       <c r="R15">
-        <v>2.391971002970291</v>
+        <v>25.17386191368</v>
       </c>
       <c r="S15">
-        <v>0.0009618546131148207</v>
+        <v>0.0009712086953278612</v>
       </c>
       <c r="T15">
-        <v>0.0009618546131148207</v>
+        <v>0.001475581003254484</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.76495925347316</v>
+        <v>1.909311666666667</v>
       </c>
       <c r="H16">
-        <v>1.76495925347316</v>
+        <v>5.727935</v>
       </c>
       <c r="I16">
-        <v>0.05312657153047713</v>
+        <v>0.05615285163969339</v>
       </c>
       <c r="J16">
-        <v>0.05312657153047713</v>
+        <v>0.06723379943427656</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N16">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O16">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P16">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q16">
-        <v>1.283977968187401</v>
+        <v>2.206368103701667</v>
       </c>
       <c r="R16">
-        <v>1.283977968187401</v>
+        <v>19.857312933315</v>
       </c>
       <c r="S16">
-        <v>0.0005163106619207566</v>
+        <v>0.0007660960027830189</v>
       </c>
       <c r="T16">
-        <v>0.0005163106619207566</v>
+        <v>0.001163948298459378</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.76495925347316</v>
+        <v>1.909311666666667</v>
       </c>
       <c r="H17">
-        <v>1.76495925347316</v>
+        <v>5.727935</v>
       </c>
       <c r="I17">
-        <v>0.05312657153047713</v>
+        <v>0.05615285163969339</v>
       </c>
       <c r="J17">
-        <v>0.05312657153047713</v>
+        <v>0.06723379943427656</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N17">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O17">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P17">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q17">
-        <v>0.8588674615381683</v>
+        <v>1.058872428472222</v>
       </c>
       <c r="R17">
-        <v>0.8588674615381683</v>
+        <v>9.52985185625</v>
       </c>
       <c r="S17">
-        <v>0.0003453660721258182</v>
+        <v>0.0003676621020530322</v>
       </c>
       <c r="T17">
-        <v>0.0003453660721258182</v>
+        <v>0.0005585979779793087</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.76495925347316</v>
+        <v>1.909311666666667</v>
       </c>
       <c r="H18">
-        <v>1.76495925347316</v>
+        <v>5.727935</v>
       </c>
       <c r="I18">
-        <v>0.05312657153047713</v>
+        <v>0.05615285163969339</v>
       </c>
       <c r="J18">
-        <v>0.05312657153047713</v>
+        <v>0.06723379943427656</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N18">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O18">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P18">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q18">
-        <v>46.1087974249424</v>
+        <v>52.83857618720889</v>
       </c>
       <c r="R18">
-        <v>46.1087974249424</v>
+        <v>475.54718568488</v>
       </c>
       <c r="S18">
-        <v>0.01854117773722379</v>
+        <v>0.01834663125425609</v>
       </c>
       <c r="T18">
-        <v>0.01854117773722379</v>
+        <v>0.02787448329357915</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.76495925347316</v>
+        <v>1.909311666666667</v>
       </c>
       <c r="H19">
-        <v>1.76495925347316</v>
+        <v>5.727935</v>
       </c>
       <c r="I19">
-        <v>0.05312657153047713</v>
+        <v>0.05615285163969339</v>
       </c>
       <c r="J19">
-        <v>0.05312657153047713</v>
+        <v>0.06723379943427656</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.8893682450944</v>
+        <v>22.525075</v>
       </c>
       <c r="N19">
-        <v>14.8893682450944</v>
+        <v>45.05015</v>
       </c>
       <c r="O19">
-        <v>0.1989081995089401</v>
+        <v>0.2659356016702117</v>
       </c>
       <c r="P19">
-        <v>0.1989081995089401</v>
+        <v>0.2249675496001858</v>
       </c>
       <c r="Q19">
-        <v>26.27912826254878</v>
+        <v>43.00738849004167</v>
       </c>
       <c r="R19">
-        <v>26.27912826254878</v>
+        <v>258.04433094025</v>
       </c>
       <c r="S19">
-        <v>0.01056731068921012</v>
+        <v>0.01493304238629999</v>
       </c>
       <c r="T19">
-        <v>0.01056731068921012</v>
+        <v>0.01512542310903956</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.97157084198204</v>
+        <v>1.971902</v>
       </c>
       <c r="H20">
-        <v>1.97157084198204</v>
+        <v>5.915706</v>
       </c>
       <c r="I20">
-        <v>0.05934573229259806</v>
+        <v>0.05799363319626428</v>
       </c>
       <c r="J20">
-        <v>0.05934573229259806</v>
+        <v>0.06943783243283075</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N20">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O20">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P20">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q20">
-        <v>61.65532052083937</v>
+        <v>61.773522536495</v>
       </c>
       <c r="R20">
-        <v>61.65532052083937</v>
+        <v>370.64113521897</v>
       </c>
       <c r="S20">
-        <v>0.02479271462421604</v>
+        <v>0.02144902684807598</v>
       </c>
       <c r="T20">
-        <v>0.02479271462421604</v>
+        <v>0.02172535227328731</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.97157084198204</v>
+        <v>1.971902</v>
       </c>
       <c r="H21">
-        <v>1.97157084198204</v>
+        <v>5.915706</v>
       </c>
       <c r="I21">
-        <v>0.05934573229259806</v>
+        <v>0.05799363319626428</v>
       </c>
       <c r="J21">
-        <v>0.05934573229259806</v>
+        <v>0.06943783243283075</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N21">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O21">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P21">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q21">
-        <v>2.671982525966272</v>
+        <v>2.888789104352</v>
       </c>
       <c r="R21">
-        <v>2.671982525966272</v>
+        <v>25.999101939168</v>
       </c>
       <c r="S21">
-        <v>0.001074452288749075</v>
+        <v>0.00100304649165942</v>
       </c>
       <c r="T21">
-        <v>0.001074452288749075</v>
+        <v>0.001523952941930831</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.97157084198204</v>
+        <v>1.971902</v>
       </c>
       <c r="H22">
-        <v>1.97157084198204</v>
+        <v>5.915706</v>
       </c>
       <c r="I22">
-        <v>0.05934573229259806</v>
+        <v>0.05799363319626428</v>
       </c>
       <c r="J22">
-        <v>0.05934573229259806</v>
+        <v>0.06943783243283075</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N22">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O22">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P22">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q22">
-        <v>1.434284399962279</v>
+        <v>2.278696428866</v>
       </c>
       <c r="R22">
-        <v>1.434284399962279</v>
+        <v>20.508267859794</v>
       </c>
       <c r="S22">
-        <v>0.0005767515847429677</v>
+        <v>0.000791209872360549</v>
       </c>
       <c r="T22">
-        <v>0.0005767515847429677</v>
+        <v>0.001202104411604869</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.97157084198204</v>
+        <v>1.971902</v>
       </c>
       <c r="H23">
-        <v>1.97157084198204</v>
+        <v>5.915706</v>
       </c>
       <c r="I23">
-        <v>0.05934573229259806</v>
+        <v>0.05799363319626428</v>
       </c>
       <c r="J23">
-        <v>0.05934573229259806</v>
+        <v>0.06943783243283075</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N23">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O23">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P23">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q23">
-        <v>0.9594091427117097</v>
+        <v>1.093583984166667</v>
       </c>
       <c r="R23">
-        <v>0.9594091427117097</v>
+        <v>9.8422558575</v>
       </c>
       <c r="S23">
-        <v>0.0003857956926049137</v>
+        <v>0.0003797146621055817</v>
       </c>
       <c r="T23">
-        <v>0.0003857956926049137</v>
+        <v>0.0005769097257423599</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.97157084198204</v>
+        <v>1.971902</v>
       </c>
       <c r="H24">
-        <v>1.97157084198204</v>
+        <v>5.915706</v>
       </c>
       <c r="I24">
-        <v>0.05934573229259806</v>
+        <v>0.05799363319626428</v>
       </c>
       <c r="J24">
-        <v>0.05934573229259806</v>
+        <v>0.06943783243283075</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N24">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O24">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P24">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q24">
-        <v>51.50643584716356</v>
+        <v>54.57071041869867</v>
       </c>
       <c r="R24">
-        <v>51.50643584716356</v>
+        <v>491.136393768288</v>
       </c>
       <c r="S24">
-        <v>0.02071166534342481</v>
+        <v>0.01894806358497264</v>
       </c>
       <c r="T24">
-        <v>0.02071166534342481</v>
+        <v>0.02878825406830314</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.97157084198204</v>
+        <v>1.971902</v>
       </c>
       <c r="H25">
-        <v>1.97157084198204</v>
+        <v>5.915706</v>
       </c>
       <c r="I25">
-        <v>0.05934573229259806</v>
+        <v>0.05799363319626428</v>
       </c>
       <c r="J25">
-        <v>0.05934573229259806</v>
+        <v>0.06943783243283075</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.8893682450944</v>
+        <v>22.525075</v>
       </c>
       <c r="N25">
-        <v>14.8893682450944</v>
+        <v>45.05015</v>
       </c>
       <c r="O25">
-        <v>0.1989081995089401</v>
+        <v>0.2659356016702117</v>
       </c>
       <c r="P25">
-        <v>0.1989081995089401</v>
+        <v>0.2249675496001858</v>
       </c>
       <c r="Q25">
-        <v>29.35544428756141</v>
+        <v>44.41724044265001</v>
       </c>
       <c r="R25">
-        <v>29.35544428756141</v>
+        <v>266.5034426559</v>
       </c>
       <c r="S25">
-        <v>0.01180435275886025</v>
+        <v>0.0154225717370901</v>
       </c>
       <c r="T25">
-        <v>0.01180435275886025</v>
+        <v>0.01562125901196224</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.218838911025</v>
+        <v>10.50213266666667</v>
       </c>
       <c r="H26">
-        <v>10.218838911025</v>
+        <v>31.506398</v>
       </c>
       <c r="I26">
-        <v>0.307594566444901</v>
+        <v>0.30886769710116</v>
       </c>
       <c r="J26">
-        <v>0.307594566444901</v>
+        <v>0.369818240610009</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N26">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O26">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P26">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q26">
-        <v>319.5653815698959</v>
+        <v>328.9989710267516</v>
       </c>
       <c r="R26">
-        <v>319.5653815698959</v>
+        <v>1973.99382616051</v>
       </c>
       <c r="S26">
-        <v>0.1285029944230558</v>
+        <v>0.114235152421058</v>
       </c>
       <c r="T26">
-        <v>0.1285029944230558</v>
+        <v>0.1157068311732183</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.218838911025</v>
+        <v>10.50213266666667</v>
       </c>
       <c r="H27">
-        <v>10.218838911025</v>
+        <v>31.506398</v>
       </c>
       <c r="I27">
-        <v>0.307594566444901</v>
+        <v>0.30886769710116</v>
       </c>
       <c r="J27">
-        <v>0.307594566444901</v>
+        <v>0.369818240610009</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N27">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O27">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P27">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q27">
-        <v>13.8491391861291</v>
+        <v>15.38537230548267</v>
       </c>
       <c r="R27">
-        <v>13.8491391861291</v>
+        <v>138.468350749344</v>
       </c>
       <c r="S27">
-        <v>0.005568988251657731</v>
+        <v>0.005342115037279637</v>
       </c>
       <c r="T27">
-        <v>0.005568988251657731</v>
+        <v>0.008116405365943411</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.218838911025</v>
+        <v>10.50213266666667</v>
       </c>
       <c r="H28">
-        <v>10.218838911025</v>
+        <v>31.506398</v>
       </c>
       <c r="I28">
-        <v>0.307594566444901</v>
+        <v>0.30886769710116</v>
       </c>
       <c r="J28">
-        <v>0.307594566444901</v>
+        <v>0.369818240610009</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N28">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O28">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P28">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q28">
-        <v>7.43403225677457</v>
+        <v>12.13608597334467</v>
       </c>
       <c r="R28">
-        <v>7.43403225677457</v>
+        <v>109.224773760102</v>
       </c>
       <c r="S28">
-        <v>0.002989358236928349</v>
+        <v>0.004213896556069666</v>
       </c>
       <c r="T28">
-        <v>0.002989358236928349</v>
+        <v>0.006402275574475612</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.218838911025</v>
+        <v>10.50213266666667</v>
       </c>
       <c r="H29">
-        <v>10.218838911025</v>
+        <v>31.506398</v>
       </c>
       <c r="I29">
-        <v>0.307594566444901</v>
+        <v>0.30886769710116</v>
       </c>
       <c r="J29">
-        <v>0.307594566444901</v>
+        <v>0.369818240610009</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N29">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O29">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P29">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q29">
-        <v>4.972708700276501</v>
+        <v>5.824307741388888</v>
       </c>
       <c r="R29">
-        <v>4.972708700276501</v>
+        <v>52.4187696725</v>
       </c>
       <c r="S29">
-        <v>0.001999615713191221</v>
+        <v>0.002022318430079854</v>
       </c>
       <c r="T29">
-        <v>0.001999615713191221</v>
+        <v>0.003072557599939828</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.218838911025</v>
+        <v>10.50213266666667</v>
       </c>
       <c r="H30">
-        <v>10.218838911025</v>
+        <v>31.506398</v>
       </c>
       <c r="I30">
-        <v>0.307594566444901</v>
+        <v>0.30886769710116</v>
       </c>
       <c r="J30">
-        <v>0.307594566444901</v>
+        <v>0.369818240610009</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N30">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O30">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P30">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q30">
-        <v>266.9627484823609</v>
+        <v>290.6375877358116</v>
       </c>
       <c r="R30">
-        <v>266.9627484823609</v>
+        <v>2615.738289622304</v>
       </c>
       <c r="S30">
-        <v>0.1073505284297796</v>
+        <v>0.1009152977915831</v>
       </c>
       <c r="T30">
-        <v>0.1073505284297796</v>
+        <v>0.1533230675089462</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.218838911025</v>
+        <v>10.50213266666667</v>
       </c>
       <c r="H31">
-        <v>10.218838911025</v>
+        <v>31.506398</v>
       </c>
       <c r="I31">
-        <v>0.307594566444901</v>
+        <v>0.30886769710116</v>
       </c>
       <c r="J31">
-        <v>0.307594566444901</v>
+        <v>0.369818240610009</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>14.8893682450944</v>
+        <v>22.525075</v>
       </c>
       <c r="N31">
-        <v>14.8893682450944</v>
+        <v>45.05015</v>
       </c>
       <c r="O31">
-        <v>0.1989081995089401</v>
+        <v>0.2659356016702117</v>
       </c>
       <c r="P31">
-        <v>0.1989081995089401</v>
+        <v>0.2249675496001858</v>
       </c>
       <c r="Q31">
-        <v>152.1520555835507</v>
+        <v>236.5613259766167</v>
       </c>
       <c r="R31">
-        <v>152.1520555835507</v>
+        <v>1419.3679558597</v>
       </c>
       <c r="S31">
-        <v>0.06118308139028831</v>
+        <v>0.08213891686508967</v>
       </c>
       <c r="T31">
-        <v>0.06118308139028831</v>
+        <v>0.08319710338748566</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.73049718844181</v>
+        <v>1.897677</v>
       </c>
       <c r="H32">
-        <v>1.73049718844181</v>
+        <v>3.795354</v>
       </c>
       <c r="I32">
-        <v>0.05208923802865655</v>
+        <v>0.05581067612030781</v>
       </c>
       <c r="J32">
-        <v>0.05208923802865655</v>
+        <v>0.04454940037170101</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>31.2721811501618</v>
+        <v>31.3268725</v>
       </c>
       <c r="N32">
-        <v>31.2721811501618</v>
+        <v>62.653745</v>
       </c>
       <c r="O32">
-        <v>0.4177674394845799</v>
+        <v>0.3698514072309863</v>
       </c>
       <c r="P32">
-        <v>0.4177674394845799</v>
+        <v>0.3128748624793679</v>
       </c>
       <c r="Q32">
-        <v>54.11642155679797</v>
+        <v>59.4482854251825</v>
       </c>
       <c r="R32">
-        <v>54.11642155679797</v>
+        <v>237.79314170073</v>
       </c>
       <c r="S32">
-        <v>0.02176118759593465</v>
+        <v>0.02064165710160865</v>
       </c>
       <c r="T32">
-        <v>0.02176118759593465</v>
+        <v>0.01393838751483425</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.73049718844181</v>
+        <v>1.897677</v>
       </c>
       <c r="H33">
-        <v>1.73049718844181</v>
+        <v>3.795354</v>
       </c>
       <c r="I33">
-        <v>0.05208923802865655</v>
+        <v>0.05581067612030781</v>
       </c>
       <c r="J33">
-        <v>0.05208923802865655</v>
+        <v>0.04454940037170101</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.35525565151902</v>
+        <v>1.464976</v>
       </c>
       <c r="N33">
-        <v>1.35525565151902</v>
+        <v>4.394928</v>
       </c>
       <c r="O33">
-        <v>0.01810496302331562</v>
+        <v>0.01729580363183785</v>
       </c>
       <c r="P33">
-        <v>0.01810496302331562</v>
+        <v>0.02194701200393884</v>
       </c>
       <c r="Q33">
-        <v>2.345266094573538</v>
+        <v>2.780051260752</v>
       </c>
       <c r="R33">
-        <v>2.345266094573538</v>
+        <v>16.680307564512</v>
       </c>
       <c r="S33">
-        <v>0.0009430737284215125</v>
+        <v>0.000965290494736946</v>
       </c>
       <c r="T33">
-        <v>0.0009430737284215125</v>
+        <v>0.0009777262247259997</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.73049718844181</v>
+        <v>1.897677</v>
       </c>
       <c r="H34">
-        <v>1.73049718844181</v>
+        <v>3.795354</v>
       </c>
       <c r="I34">
-        <v>0.05208923802865655</v>
+        <v>0.05581067612030781</v>
       </c>
       <c r="J34">
-        <v>0.05208923802865655</v>
+        <v>0.04454940037170101</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.727483065493289</v>
+        <v>1.155583</v>
       </c>
       <c r="N34">
-        <v>0.727483065493289</v>
+        <v>3.466749</v>
       </c>
       <c r="O34">
-        <v>0.009718501439991558</v>
+        <v>0.01364304715455412</v>
       </c>
       <c r="P34">
-        <v>0.009718501439991558</v>
+        <v>0.01731195184941436</v>
       </c>
       <c r="Q34">
-        <v>1.258907399475166</v>
+        <v>2.192923280691</v>
       </c>
       <c r="R34">
-        <v>1.258907399475166</v>
+        <v>13.157539684146</v>
       </c>
       <c r="S34">
-        <v>0.0005062293347895617</v>
+        <v>0.0007614276860369073</v>
       </c>
       <c r="T34">
-        <v>0.0005062293347895617</v>
+        <v>0.0007712370741551703</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.73049718844181</v>
+        <v>1.897677</v>
       </c>
       <c r="H35">
-        <v>1.73049718844181</v>
+        <v>3.795354</v>
       </c>
       <c r="I35">
-        <v>0.05208923802865655</v>
+        <v>0.05581067612030781</v>
       </c>
       <c r="J35">
-        <v>0.05208923802865655</v>
+        <v>0.04454940037170101</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.486621693870866</v>
+        <v>0.5545833333333333</v>
       </c>
       <c r="N35">
-        <v>0.486621693870866</v>
+        <v>1.66375</v>
       </c>
       <c r="O35">
-        <v>0.006500816110967973</v>
+        <v>0.006547523256915751</v>
       </c>
       <c r="P35">
-        <v>0.006500816110967973</v>
+        <v>0.008308291107739021</v>
       </c>
       <c r="Q35">
-        <v>0.8420974730783248</v>
+        <v>1.05242003625</v>
       </c>
       <c r="R35">
-        <v>0.8420974730783248</v>
+        <v>6.314520217499999</v>
       </c>
       <c r="S35">
-        <v>0.0003386225577847361</v>
+        <v>0.0003654216998819079</v>
       </c>
       <c r="T35">
-        <v>0.0003386225577847361</v>
+        <v>0.000370129386963309</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.73049718844181</v>
+        <v>1.897677</v>
       </c>
       <c r="H36">
-        <v>1.73049718844181</v>
+        <v>3.795354</v>
       </c>
       <c r="I36">
-        <v>0.05208923802865655</v>
+        <v>0.05581067612030781</v>
       </c>
       <c r="J36">
-        <v>0.05208923802865655</v>
+        <v>0.04454940037170101</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>26.1245676545833</v>
+        <v>27.67414933333333</v>
       </c>
       <c r="N36">
-        <v>26.1245676545833</v>
+        <v>83.022448</v>
       </c>
       <c r="O36">
-        <v>0.3490000804322047</v>
+        <v>0.3267266170554943</v>
       </c>
       <c r="P36">
-        <v>0.3490000804322047</v>
+        <v>0.4145903329593541</v>
       </c>
       <c r="Q36">
-        <v>45.20849087551425</v>
+        <v>52.516596684432</v>
       </c>
       <c r="R36">
-        <v>45.20849087551425</v>
+        <v>315.099580106592</v>
       </c>
       <c r="S36">
-        <v>0.01817914826165339</v>
+        <v>0.01823483340436803</v>
       </c>
       <c r="T36">
-        <v>0.01817914826165339</v>
+        <v>0.01846975073324309</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.73049718844181</v>
+        <v>1.897677</v>
       </c>
       <c r="H37">
-        <v>1.73049718844181</v>
+        <v>3.795354</v>
       </c>
       <c r="I37">
-        <v>0.05208923802865655</v>
+        <v>0.05581067612030781</v>
       </c>
       <c r="J37">
-        <v>0.05208923802865655</v>
+        <v>0.04454940037170101</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>14.8893682450944</v>
+        <v>22.525075</v>
       </c>
       <c r="N37">
-        <v>14.8893682450944</v>
+        <v>45.05015</v>
       </c>
       <c r="O37">
-        <v>0.1989081995089401</v>
+        <v>0.2659356016702117</v>
       </c>
       <c r="P37">
-        <v>0.1989081995089401</v>
+        <v>0.2249675496001858</v>
       </c>
       <c r="Q37">
-        <v>25.76600988581063</v>
+        <v>42.745316750775</v>
       </c>
       <c r="R37">
-        <v>25.76600988581063</v>
+        <v>170.9812670031</v>
       </c>
       <c r="S37">
-        <v>0.01036097655007269</v>
+        <v>0.01484204573367537</v>
       </c>
       <c r="T37">
-        <v>0.01036097655007269</v>
+        <v>0.01002216943777919</v>
       </c>
     </row>
   </sheetData>
